--- a/medicine/Mort/Supplice_de_la_planche/Supplice_de_la_planche.xlsx
+++ b/medicine/Mort/Supplice_de_la_planche/Supplice_de_la_planche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le supplice de la planche est une méthode d'exécution pratiquée sur les navires pirates. Elle consiste à pousser un prisonnier par-dessus bord en le forçant à marcher le long d'une planche suspendue sur un côté du navire élevée au-dessus de l'eau, la victime, souvent ligotée, finit alors par tomber et par se noyer.
-Bien qu'il existe, depuis le XIXe siècle, de nombreuses références culturelles au supplice de la planche, peu de cas réels sont prouvés. Il est donc difficile d'établir à quel point la pratique était courante[1],[2].
+Bien qu'il existe, depuis le XIXe siècle, de nombreuses références culturelles au supplice de la planche, peu de cas réels sont prouvés. Il est donc difficile d'établir à quel point la pratique était courante,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En bande dessinée, le supplice de la planche est représenté dans Le Démon des Caraïbes, premier épisode de la série Barbe-Rouge (planches 34 et 35).
 En film, dans le premier volet de  Pirates des Caraïbes , intitulé  La Malédiction du Black Pearl  , le capitaine Barbossa et son équipage maudit, au large d'une île deserte des Antilles, condamne le capitaine Jack Sparrow, ainsi qu'Elizabeth Swann au supplice de la planche.</t>
